--- a/xlsx/英式橄欖球_intext.xlsx
+++ b/xlsx/英式橄欖球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>橄欖球 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_英式橄欖球</t>
+    <t>体育运动_体育运动_美式足球_英式橄欖球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A9%84%E6%AC%96%E7%90%83%E7%B8%BD%E6%9C%83</t>
